--- a/files/Ali_Mortazavi_Grades2.xlsx
+++ b/files/Ali_Mortazavi_Grades2.xlsx
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,49 +825,49 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="str">
-        <f>IF( C2&gt;=17, "A",IF(C2&gt;=14, "B", IF(C2&gt;=12, "C", IF(C2&gt;=10, "D", "F"))))</f>
+        <f t="shared" ref="G2:G33" si="0">IF( C2&gt;=17, "A",IF(C2&gt;=14, "B", IF(C2&gt;=12, "C", IF(C2&gt;=10, "D", "F"))))</f>
         <v>A</v>
       </c>
       <c r="H2" t="str">
-        <f>IF( C2&gt;=17, "4",IF(C2&gt;=14, "3", IF(C2&gt;=12, "2", IF(C2&gt;=10, "1", "0"))))</f>
+        <f t="shared" ref="H2:H33" si="1">IF( C2&gt;=17, "4",IF(C2&gt;=14, "3", IF(C2&gt;=12, "2", IF(C2&gt;=10, "1", "0"))))</f>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>D2*H2</f>
+        <f t="shared" ref="I2:I33" si="2">D2*H2</f>
         <v>12</v>
       </c>
       <c r="J2">
-        <f>D2*E2</f>
-        <v>0</v>
+        <f t="shared" ref="J2:J33" si="3">D2*E2</f>
+        <v>3</v>
       </c>
       <c r="K2">
-        <f>D2*F2</f>
+        <f t="shared" ref="K2:K33" si="4">D2*F2</f>
         <v>3</v>
       </c>
       <c r="L2">
-        <f>I2*E2</f>
-        <v>0</v>
+        <f t="shared" ref="L2:L33" si="5">I2*E2</f>
+        <v>12</v>
       </c>
       <c r="M2">
-        <f>I2*F2</f>
+        <f t="shared" ref="M2:M33" si="6">I2*F2</f>
         <v>12</v>
       </c>
       <c r="N2">
-        <f>C2*D2</f>
+        <f t="shared" ref="N2:N33" si="7">C2*D2</f>
         <v>58.5</v>
       </c>
       <c r="O2">
-        <f>C2*D2*E2</f>
-        <v>0</v>
+        <f t="shared" ref="O2:O33" si="8">C2*D2*E2</f>
+        <v>58.5</v>
       </c>
       <c r="P2">
-        <f>C2*D2*F2</f>
+        <f t="shared" ref="P2:P33" si="9">C2*D2*F2</f>
         <v>58.5</v>
       </c>
     </row>
@@ -882,49 +882,49 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f>IF( C3&gt;=17, "A",IF(C3&gt;=14, "B", IF(C3&gt;=12, "C", IF(C3&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H3" t="str">
-        <f>IF( C3&gt;=17, "4",IF(C3&gt;=14, "3", IF(C3&gt;=12, "2", IF(C3&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I3">
-        <f>D3*H3</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J3">
-        <f>D3*E3</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K3">
-        <f>D3*F3</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>I3*E3</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="M3">
-        <f>I3*F3</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N3">
-        <f>C3*D3</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="O3">
-        <f>C3*D3*E3</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>57</v>
       </c>
       <c r="P3">
-        <f>C3*D3*F3</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
     </row>
@@ -939,49 +939,49 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f>IF( C4&gt;=17, "A",IF(C4&gt;=14, "B", IF(C4&gt;=12, "C", IF(C4&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H4" t="str">
-        <f>IF( C4&gt;=17, "4",IF(C4&gt;=14, "3", IF(C4&gt;=12, "2", IF(C4&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I4">
-        <f>D4*H4</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J4">
-        <f>D4*E4</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K4">
-        <f>D4*F4</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L4">
-        <f>I4*E4</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="M4">
-        <f>I4*F4</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N4">
-        <f>C4*D4</f>
+        <f t="shared" si="7"/>
         <v>59.400000000000006</v>
       </c>
       <c r="O4">
-        <f>C4*D4*E4</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>59.400000000000006</v>
       </c>
       <c r="P4">
-        <f>C4*D4*F4</f>
+        <f t="shared" si="9"/>
         <v>59.400000000000006</v>
       </c>
     </row>
@@ -1002,43 +1002,43 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f>IF( C5&gt;=17, "A",IF(C5&gt;=14, "B", IF(C5&gt;=12, "C", IF(C5&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H5" t="str">
-        <f>IF( C5&gt;=17, "4",IF(C5&gt;=14, "3", IF(C5&gt;=12, "2", IF(C5&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I5">
-        <f>D5*H5</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J5">
-        <f>D5*E5</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K5">
-        <f>D5*F5</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L5">
-        <f>I5*E5</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M5">
-        <f>I5*F5</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N5">
-        <f>C5*D5</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O5">
-        <f>C5*D5*E5</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P5">
-        <f>C5*D5*F5</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1059,43 +1059,43 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f>IF( C6&gt;=17, "A",IF(C6&gt;=14, "B", IF(C6&gt;=12, "C", IF(C6&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H6" t="str">
-        <f>IF( C6&gt;=17, "4",IF(C6&gt;=14, "3", IF(C6&gt;=12, "2", IF(C6&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I6">
-        <f>D6*H6</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J6">
-        <f>D6*E6</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K6">
-        <f>D6*F6</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L6">
-        <f>I6*E6</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M6">
-        <f>I6*F6</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N6">
-        <f>C6*D6</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O6">
-        <f>C6*D6*E6</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P6">
-        <f>C6*D6*F6</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1110,49 +1110,49 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f>IF( C7&gt;=17, "A",IF(C7&gt;=14, "B", IF(C7&gt;=12, "C", IF(C7&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H7" t="str">
-        <f>IF( C7&gt;=17, "4",IF(C7&gt;=14, "3", IF(C7&gt;=12, "2", IF(C7&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I7">
-        <f>D7*H7</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J7">
-        <f>D7*E7</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K7">
-        <f>D7*F7</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L7">
-        <f>I7*E7</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="M7">
-        <f>I7*F7</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N7">
-        <f>C7*D7</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O7">
-        <f>C7*D7*E7</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
       <c r="P7">
-        <f>C7*D7*F7</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1176,43 +1176,43 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f>IF( C8&gt;=17, "A",IF(C8&gt;=14, "B", IF(C8&gt;=12, "C", IF(C8&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H8" t="str">
-        <f>IF( C8&gt;=17, "4",IF(C8&gt;=14, "3", IF(C8&gt;=12, "2", IF(C8&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I8">
-        <f>D8*H8</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J8">
-        <f>D8*E8</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K8">
-        <f>D8*F8</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L8">
-        <f>I8*E8</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M8">
-        <f>I8*F8</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N8">
-        <f>C8*D8</f>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="O8">
-        <f>C8*D8*E8</f>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="P8">
-        <f>C8*D8*F8</f>
+        <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
     </row>
@@ -1233,43 +1233,43 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f>IF( C9&gt;=17, "A",IF(C9&gt;=14, "B", IF(C9&gt;=12, "C", IF(C9&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H9" t="str">
-        <f>IF( C9&gt;=17, "4",IF(C9&gt;=14, "3", IF(C9&gt;=12, "2", IF(C9&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I9">
-        <f>D9*H9</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J9">
-        <f>D9*E9</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K9">
-        <f>D9*F9</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L9">
-        <f>I9*E9</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M9">
-        <f>I9*F9</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N9">
-        <f>C9*D9</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O9">
-        <f>C9*D9*E9</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P9">
-        <f>C9*D9*F9</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1290,43 +1290,43 @@
         <v>1</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f>IF( C10&gt;=17, "A",IF(C10&gt;=14, "B", IF(C10&gt;=12, "C", IF(C10&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H10" t="str">
-        <f>IF( C10&gt;=17, "4",IF(C10&gt;=14, "3", IF(C10&gt;=12, "2", IF(C10&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I10">
-        <f>D10*H10</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J10">
-        <f>D10*E10</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K10">
-        <f>D10*F10</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L10">
-        <f>I10*E10</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M10">
-        <f>I10*F10</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N10">
-        <f>C10*D10</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O10">
-        <f>C10*D10*E10</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P10">
-        <f>C10*D10*F10</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1347,43 +1347,43 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f>IF( C11&gt;=17, "A",IF(C11&gt;=14, "B", IF(C11&gt;=12, "C", IF(C11&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H11" t="str">
-        <f>IF( C11&gt;=17, "4",IF(C11&gt;=14, "3", IF(C11&gt;=12, "2", IF(C11&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>D11*H11</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J11">
-        <f>D11*E11</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K11">
-        <f>D11*F11</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L11">
-        <f>I11*E11</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M11">
-        <f>I11*F11</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N11">
-        <f>C11*D11</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O11">
-        <f>C11*D11*E11</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P11">
-        <f>C11*D11*F11</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1407,43 +1407,43 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f>IF( C12&gt;=17, "A",IF(C12&gt;=14, "B", IF(C12&gt;=12, "C", IF(C12&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H12" t="str">
-        <f>IF( C12&gt;=17, "4",IF(C12&gt;=14, "3", IF(C12&gt;=12, "2", IF(C12&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I12">
-        <f>D12*H12</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J12">
-        <f>D12*E12</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K12">
-        <f>D12*F12</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L12">
-        <f>I12*E12</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M12">
-        <f>I12*F12</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N12">
-        <f>C12*D12</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O12">
-        <f>C12*D12*E12</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P12">
-        <f>C12*D12*F12</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1464,43 +1464,43 @@
         <v>1</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f>IF( C13&gt;=17, "A",IF(C13&gt;=14, "B", IF(C13&gt;=12, "C", IF(C13&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H13" t="str">
-        <f>IF( C13&gt;=17, "4",IF(C13&gt;=14, "3", IF(C13&gt;=12, "2", IF(C13&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I13">
-        <f>D13*H13</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J13">
-        <f>D13*E13</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K13">
-        <f>D13*F13</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L13">
-        <f>I13*E13</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M13">
-        <f>I13*F13</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N13">
-        <f>C13*D13</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="O13">
-        <f>C13*D13*E13</f>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="P13">
-        <f>C13*D13*F13</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
     </row>
@@ -1521,43 +1521,43 @@
         <v>1</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f>IF( C14&gt;=17, "A",IF(C14&gt;=14, "B", IF(C14&gt;=12, "C", IF(C14&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H14" t="str">
-        <f>IF( C14&gt;=17, "4",IF(C14&gt;=14, "3", IF(C14&gt;=12, "2", IF(C14&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I14">
-        <f>D14*H14</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J14">
-        <f>D14*E14</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K14">
-        <f>D14*F14</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L14">
-        <f>I14*E14</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M14">
-        <f>I14*F14</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N14">
-        <f>C14*D14</f>
+        <f t="shared" si="7"/>
         <v>55.800000000000004</v>
       </c>
       <c r="O14">
-        <f>C14*D14*E14</f>
+        <f t="shared" si="8"/>
         <v>55.800000000000004</v>
       </c>
       <c r="P14">
-        <f>C14*D14*F14</f>
+        <f t="shared" si="9"/>
         <v>55.800000000000004</v>
       </c>
     </row>
@@ -1581,43 +1581,43 @@
         <v>1</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f>IF( C15&gt;=17, "A",IF(C15&gt;=14, "B", IF(C15&gt;=12, "C", IF(C15&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H15" t="str">
-        <f>IF( C15&gt;=17, "4",IF(C15&gt;=14, "3", IF(C15&gt;=12, "2", IF(C15&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15">
-        <f>D15*H15</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J15">
-        <f>D15*E15</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K15">
-        <f>D15*F15</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L15">
-        <f>I15*E15</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M15">
-        <f>I15*F15</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N15">
-        <f>C15*D15</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O15">
-        <f>C15*D15*E15</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P15">
-        <f>C15*D15*F15</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1638,43 +1638,43 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f>IF( C16&gt;=17, "A",IF(C16&gt;=14, "B", IF(C16&gt;=12, "C", IF(C16&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H16" t="str">
-        <f>IF( C16&gt;=17, "4",IF(C16&gt;=14, "3", IF(C16&gt;=12, "2", IF(C16&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I16">
-        <f>D16*H16</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J16">
-        <f>D16*E16</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K16">
-        <f>D16*F16</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L16">
-        <f>I16*E16</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M16">
-        <f>I16*F16</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N16">
-        <f>C16*D16</f>
+        <f t="shared" si="7"/>
         <v>55.199999999999996</v>
       </c>
       <c r="O16">
-        <f>C16*D16*E16</f>
+        <f t="shared" si="8"/>
         <v>55.199999999999996</v>
       </c>
       <c r="P16">
-        <f>C16*D16*F16</f>
+        <f t="shared" si="9"/>
         <v>55.199999999999996</v>
       </c>
     </row>
@@ -1695,43 +1695,43 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f>IF( C17&gt;=17, "A",IF(C17&gt;=14, "B", IF(C17&gt;=12, "C", IF(C17&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H17" t="str">
-        <f>IF( C17&gt;=17, "4",IF(C17&gt;=14, "3", IF(C17&gt;=12, "2", IF(C17&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I17">
-        <f>D17*H17</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J17">
-        <f>D17*E17</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K17">
-        <f>D17*F17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>I17*E17</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M17">
-        <f>I17*F17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>C17*D17</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O17">
-        <f>C17*D17*E17</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="P17">
-        <f>C17*D17*F17</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1752,43 +1752,43 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f>IF( C18&gt;=17, "A",IF(C18&gt;=14, "B", IF(C18&gt;=12, "C", IF(C18&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H18" t="str">
-        <f>IF( C18&gt;=17, "4",IF(C18&gt;=14, "3", IF(C18&gt;=12, "2", IF(C18&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I18">
-        <f>D18*H18</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J18">
-        <f>D18*E18</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K18">
-        <f>D18*F18</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L18">
-        <f>I18*E18</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M18">
-        <f>I18*F18</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N18">
-        <f>C18*D18</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O18">
-        <f>C18*D18*E18</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="P18">
-        <f>C18*D18*F18</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -1809,43 +1809,43 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f>IF( C19&gt;=17, "A",IF(C19&gt;=14, "B", IF(C19&gt;=12, "C", IF(C19&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H19" t="str">
-        <f>IF( C19&gt;=17, "4",IF(C19&gt;=14, "3", IF(C19&gt;=12, "2", IF(C19&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I19">
-        <f>D19*H19</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J19">
-        <f>D19*E19</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K19">
-        <f>D19*F19</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L19">
-        <f>I19*E19</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M19">
-        <f>I19*F19</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N19">
-        <f>C19*D19</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="O19">
-        <f>C19*D19*E19</f>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="P19">
-        <f>C19*D19*F19</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
     </row>
@@ -1869,43 +1869,43 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f>IF( C20&gt;=17, "A",IF(C20&gt;=14, "B", IF(C20&gt;=12, "C", IF(C20&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H20" t="str">
-        <f>IF( C20&gt;=17, "4",IF(C20&gt;=14, "3", IF(C20&gt;=12, "2", IF(C20&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f>D20*H20</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J20">
-        <f>D20*E20</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K20">
-        <f>D20*F20</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L20">
-        <f>I20*E20</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M20">
-        <f>I20*F20</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N20">
-        <f>C20*D20</f>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="O20">
-        <f>C20*D20*E20</f>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="P20">
-        <f>C20*D20*F20</f>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
     </row>
@@ -1926,43 +1926,43 @@
         <v>1</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f>IF( C21&gt;=17, "A",IF(C21&gt;=14, "B", IF(C21&gt;=12, "C", IF(C21&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H21" t="str">
-        <f>IF( C21&gt;=17, "4",IF(C21&gt;=14, "3", IF(C21&gt;=12, "2", IF(C21&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I21">
-        <f>D21*H21</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J21">
-        <f>D21*E21</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K21">
-        <f>D21*F21</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L21">
-        <f>I21*E21</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M21">
-        <f>I21*F21</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N21">
-        <f>C21*D21</f>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="O21">
-        <f>C21*D21*E21</f>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="P21">
-        <f>C21*D21*F21</f>
+        <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
     </row>
@@ -1983,43 +1983,43 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f>IF( C22&gt;=17, "A",IF(C22&gt;=14, "B", IF(C22&gt;=12, "C", IF(C22&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H22" t="str">
-        <f>IF( C22&gt;=17, "4",IF(C22&gt;=14, "3", IF(C22&gt;=12, "2", IF(C22&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I22">
-        <f>D22*H22</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J22">
-        <f>D22*E22</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K22">
-        <f>D22*F22</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f>I22*E22</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M22">
-        <f>I22*F22</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N22">
-        <f>C22*D22</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O22">
-        <f>C22*D22*E22</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="P22">
-        <f>C22*D22*F22</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
@@ -2037,49 +2037,49 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f>IF( C23&gt;=17, "A",IF(C23&gt;=14, "B", IF(C23&gt;=12, "C", IF(C23&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H23" t="str">
-        <f>IF( C23&gt;=17, "4",IF(C23&gt;=14, "3", IF(C23&gt;=12, "2", IF(C23&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I23">
-        <f>D23*H23</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J23">
-        <f>D23*E23</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K23">
-        <f>D23*F23</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>I23*E23</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="M23">
-        <f>I23*F23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>C23*D23</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O23">
-        <f>C23*D23*E23</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
       <c r="P23">
-        <f>C23*D23*F23</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2094,49 +2094,49 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f>IF( C24&gt;=17, "A",IF(C24&gt;=14, "B", IF(C24&gt;=12, "C", IF(C24&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H24" t="str">
-        <f>IF( C24&gt;=17, "4",IF(C24&gt;=14, "3", IF(C24&gt;=12, "2", IF(C24&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I24">
-        <f>D24*H24</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J24">
-        <f>D24*E24</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K24">
-        <f>D24*F24</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>I24*E24</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="M24">
-        <f>I24*F24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>C24*D24</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O24">
-        <f>C24*D24*E24</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
       <c r="P24">
-        <f>C24*D24*F24</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2151,49 +2151,49 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f>IF( C25&gt;=17, "A",IF(C25&gt;=14, "B", IF(C25&gt;=12, "C", IF(C25&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H25" t="str">
-        <f>IF( C25&gt;=17, "4",IF(C25&gt;=14, "3", IF(C25&gt;=12, "2", IF(C25&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I25">
-        <f>D25*H25</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J25">
-        <f>D25*E25</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K25">
-        <f>D25*F25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>I25*E25</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="M25">
-        <f>I25*F25</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>C25*D25</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O25">
-        <f>C25*D25*E25</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
       <c r="P25">
-        <f>C25*D25*F25</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2217,43 +2217,43 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f>IF( C26&gt;=17, "A",IF(C26&gt;=14, "B", IF(C26&gt;=12, "C", IF(C26&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H26" t="str">
-        <f>IF( C26&gt;=17, "4",IF(C26&gt;=14, "3", IF(C26&gt;=12, "2", IF(C26&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I26">
-        <f>D26*H26</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J26">
-        <f>D26*E26</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K26">
-        <f>D26*F26</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>I26*E26</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M26">
-        <f>I26*F26</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>C26*D26</f>
+        <f t="shared" si="7"/>
         <v>58.199999999999996</v>
       </c>
       <c r="O26">
-        <f>C26*D26*E26</f>
+        <f t="shared" si="8"/>
         <v>58.199999999999996</v>
       </c>
       <c r="P26">
-        <f>C26*D26*F26</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2274,43 +2274,43 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f>IF( C27&gt;=17, "A",IF(C27&gt;=14, "B", IF(C27&gt;=12, "C", IF(C27&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H27" t="str">
-        <f>IF( C27&gt;=17, "4",IF(C27&gt;=14, "3", IF(C27&gt;=12, "2", IF(C27&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I27">
-        <f>D27*H27</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J27">
-        <f>D27*E27</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K27">
-        <f>D27*F27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>I27*E27</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M27">
-        <f>I27*F27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>C27*D27</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O27">
-        <f>C27*D27*E27</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="P27">
-        <f>C27*D27*F27</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2331,43 +2331,43 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f>IF( C28&gt;=17, "A",IF(C28&gt;=14, "B", IF(C28&gt;=12, "C", IF(C28&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H28" t="str">
-        <f>IF( C28&gt;=17, "4",IF(C28&gt;=14, "3", IF(C28&gt;=12, "2", IF(C28&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I28">
-        <f>D28*H28</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J28">
-        <f>D28*E28</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K28">
-        <f>D28*F28</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>I28*E28</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M28">
-        <f>I28*F28</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>C28*D28</f>
+        <f t="shared" si="7"/>
         <v>57.900000000000006</v>
       </c>
       <c r="O28">
-        <f>C28*D28*E28</f>
+        <f t="shared" si="8"/>
         <v>57.900000000000006</v>
       </c>
       <c r="P28">
-        <f>C28*D28*F28</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2388,43 +2388,43 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f>IF( C29&gt;=17, "A",IF(C29&gt;=14, "B", IF(C29&gt;=12, "C", IF(C29&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H29" t="str">
-        <f>IF( C29&gt;=17, "4",IF(C29&gt;=14, "3", IF(C29&gt;=12, "2", IF(C29&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I29">
-        <f>D29*H29</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J29">
-        <f>D29*E29</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K29">
-        <f>D29*F29</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>I29*E29</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M29">
-        <f>I29*F29</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>C29*D29</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O29">
-        <f>C29*D29*E29</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="P29">
-        <f>C29*D29*F29</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2445,43 +2445,43 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="str">
-        <f>IF( C30&gt;=17, "A",IF(C30&gt;=14, "B", IF(C30&gt;=12, "C", IF(C30&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H30" t="str">
-        <f>IF( C30&gt;=17, "4",IF(C30&gt;=14, "3", IF(C30&gt;=12, "2", IF(C30&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I30">
-        <f>D30*H30</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J30">
-        <f>D30*E30</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K30">
-        <f>D30*F30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>I30*E30</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M30">
-        <f>I30*F30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f>C30*D30</f>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="O30">
-        <f>C30*D30*E30</f>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="P30">
-        <f>C30*D30*F30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2502,43 +2502,43 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f>IF( C31&gt;=17, "A",IF(C31&gt;=14, "B", IF(C31&gt;=12, "C", IF(C31&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H31" t="str">
-        <f>IF( C31&gt;=17, "4",IF(C31&gt;=14, "3", IF(C31&gt;=12, "2", IF(C31&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I31">
-        <f>D31*H31</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J31">
-        <f>D31*E31</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K31">
-        <f>D31*F31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>I31*E31</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M31">
-        <f>I31*F31</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>C31*D31</f>
+        <f t="shared" si="7"/>
         <v>18.5</v>
       </c>
       <c r="O31">
-        <f>C31*D31*E31</f>
+        <f t="shared" si="8"/>
         <v>18.5</v>
       </c>
       <c r="P31">
-        <f>C31*D31*F31</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2559,43 +2559,43 @@
         <v>0</v>
       </c>
       <c r="G32" s="6" t="str">
-        <f>IF( C32&gt;=17, "A",IF(C32&gt;=14, "B", IF(C32&gt;=12, "C", IF(C32&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H32" t="str">
-        <f>IF( C32&gt;=17, "4",IF(C32&gt;=14, "3", IF(C32&gt;=12, "2", IF(C32&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I32">
-        <f>D32*H32</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J32">
-        <f>D32*E32</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K32">
-        <f>D32*F32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>I32*E32</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M32">
-        <f>I32*F32</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>C32*D32</f>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="O32">
-        <f>C32*D32*E32</f>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="P32">
-        <f>C32*D32*F32</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2616,43 +2616,43 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f>IF( C33&gt;=17, "A",IF(C33&gt;=14, "B", IF(C33&gt;=12, "C", IF(C33&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="H33" t="str">
-        <f>IF( C33&gt;=17, "4",IF(C33&gt;=14, "3", IF(C33&gt;=12, "2", IF(C33&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I33">
-        <f>D33*H33</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J33">
-        <f>D33*E33</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K33">
-        <f>D33*F33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>I33*E33</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M33">
-        <f>I33*F33</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>C33*D33</f>
+        <f t="shared" si="7"/>
         <v>19.5</v>
       </c>
       <c r="O33">
-        <f>C33*D33*E33</f>
+        <f t="shared" si="8"/>
         <v>19.5</v>
       </c>
       <c r="P33">
-        <f>C33*D33*F33</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2673,43 +2673,43 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="str">
-        <f>IF( C34&gt;=17, "A",IF(C34&gt;=14, "B", IF(C34&gt;=12, "C", IF(C34&gt;=10, "D", "F"))))</f>
+        <f t="shared" ref="G34:G59" si="10">IF( C34&gt;=17, "A",IF(C34&gt;=14, "B", IF(C34&gt;=12, "C", IF(C34&gt;=10, "D", "F"))))</f>
         <v>C</v>
       </c>
       <c r="H34" t="str">
-        <f>IF( C34&gt;=17, "4",IF(C34&gt;=14, "3", IF(C34&gt;=12, "2", IF(C34&gt;=10, "1", "0"))))</f>
+        <f t="shared" ref="H34:H59" si="11">IF( C34&gt;=17, "4",IF(C34&gt;=14, "3", IF(C34&gt;=12, "2", IF(C34&gt;=10, "1", "0"))))</f>
         <v>2</v>
       </c>
       <c r="I34">
-        <f>D34*H34</f>
+        <f t="shared" ref="I34:I65" si="12">D34*H34</f>
         <v>6</v>
       </c>
       <c r="J34">
-        <f>D34*E34</f>
+        <f t="shared" ref="J34:J59" si="13">D34*E34</f>
         <v>3</v>
       </c>
       <c r="K34">
-        <f>D34*F34</f>
+        <f t="shared" ref="K34:K59" si="14">D34*F34</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>I34*E34</f>
+        <f t="shared" ref="L34:L59" si="15">I34*E34</f>
         <v>6</v>
       </c>
       <c r="M34">
-        <f>I34*F34</f>
+        <f t="shared" ref="M34:M59" si="16">I34*F34</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>C34*D34</f>
+        <f t="shared" ref="N34:N59" si="17">C34*D34</f>
         <v>40.5</v>
       </c>
       <c r="O34">
-        <f>C34*D34*E34</f>
+        <f t="shared" ref="O34:O59" si="18">C34*D34*E34</f>
         <v>40.5</v>
       </c>
       <c r="P34">
-        <f>C34*D34*F34</f>
+        <f t="shared" ref="P34:P59" si="19">C34*D34*F34</f>
         <v>0</v>
       </c>
     </row>
@@ -2730,43 +2730,43 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="str">
-        <f>IF( C35&gt;=17, "A",IF(C35&gt;=14, "B", IF(C35&gt;=12, "C", IF(C35&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H35" t="str">
-        <f>IF( C35&gt;=17, "4",IF(C35&gt;=14, "3", IF(C35&gt;=12, "2", IF(C35&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I35">
-        <f>D35*H35</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J35">
-        <f>D35*E35</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K35">
-        <f>D35*F35</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>I35*E35</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="M35">
-        <f>I35*F35</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>C35*D35</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="O35">
-        <f>C35*D35*E35</f>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="P35">
-        <f>C35*D35*F35</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2784,49 +2784,49 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" s="6" t="str">
-        <f>IF( C36&gt;=17, "A",IF(C36&gt;=14, "B", IF(C36&gt;=12, "C", IF(C36&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="H36" t="str">
-        <f>IF( C36&gt;=17, "4",IF(C36&gt;=14, "3", IF(C36&gt;=12, "2", IF(C36&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I36">
-        <f>D36*H36</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="J36">
-        <f>D36*E36</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="K36">
-        <f>D36*F36</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>I36*E36</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="M36">
-        <f>I36*F36</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f>C36*D36</f>
+        <f t="shared" si="17"/>
         <v>40.5</v>
       </c>
       <c r="O36">
-        <f>C36*D36*E36</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>40.5</v>
       </c>
       <c r="P36">
-        <f>C36*D36*F36</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2847,43 +2847,43 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="str">
-        <f>IF( C37&gt;=17, "A",IF(C37&gt;=14, "B", IF(C37&gt;=12, "C", IF(C37&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H37" t="str">
-        <f>IF( C37&gt;=17, "4",IF(C37&gt;=14, "3", IF(C37&gt;=12, "2", IF(C37&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I37">
-        <f>D37*H37</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J37">
-        <f>D37*E37</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K37">
-        <f>D37*F37</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f>I37*E37</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="M37">
-        <f>I37*F37</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>C37*D37</f>
+        <f t="shared" si="17"/>
         <v>52.5</v>
       </c>
       <c r="O37">
-        <f>C37*D37*E37</f>
+        <f t="shared" si="18"/>
         <v>52.5</v>
       </c>
       <c r="P37">
-        <f>C37*D37*F37</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2898,49 +2898,49 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="6" t="str">
-        <f>IF( C38&gt;=17, "A",IF(C38&gt;=14, "B", IF(C38&gt;=12, "C", IF(C38&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="H38" t="str">
-        <f>IF( C38&gt;=17, "4",IF(C38&gt;=14, "3", IF(C38&gt;=12, "2", IF(C38&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I38">
-        <f>D38*H38</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="J38">
-        <f>D38*E38</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="K38">
-        <f>D38*F38</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>I38*E38</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="M38">
-        <f>I38*F38</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>C38*D38</f>
+        <f t="shared" si="17"/>
         <v>31.5</v>
       </c>
       <c r="O38">
-        <f>C38*D38*E38</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>31.5</v>
       </c>
       <c r="P38">
-        <f>C38*D38*F38</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2961,43 +2961,43 @@
         <v>0</v>
       </c>
       <c r="G39" s="6" t="str">
-        <f>IF( C39&gt;=17, "A",IF(C39&gt;=14, "B", IF(C39&gt;=12, "C", IF(C39&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H39" t="str">
-        <f>IF( C39&gt;=17, "4",IF(C39&gt;=14, "3", IF(C39&gt;=12, "2", IF(C39&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I39">
-        <f>D39*H39</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J39">
-        <f>D39*E39</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K39">
-        <f>D39*F39</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f>I39*E39</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="M39">
-        <f>I39*F39</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N39">
-        <f>C39*D39</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="O39">
-        <f>C39*D39*E39</f>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="P39">
-        <f>C39*D39*F39</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3018,43 +3018,43 @@
         <v>0</v>
       </c>
       <c r="G40" s="6" t="str">
-        <f>IF( C40&gt;=17, "A",IF(C40&gt;=14, "B", IF(C40&gt;=12, "C", IF(C40&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H40" t="str">
-        <f>IF( C40&gt;=17, "4",IF(C40&gt;=14, "3", IF(C40&gt;=12, "2", IF(C40&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I40">
-        <f>D40*H40</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J40">
-        <f>D40*E40</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K40">
-        <f>D40*F40</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f>I40*E40</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="M40">
-        <f>I40*F40</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>C40*D40</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="O40">
-        <f>C40*D40*E40</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="P40">
-        <f>C40*D40*F40</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3075,43 +3075,43 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="str">
-        <f>IF( C41&gt;=17, "A",IF(C41&gt;=14, "B", IF(C41&gt;=12, "C", IF(C41&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="H41" t="str">
-        <f>IF( C41&gt;=17, "4",IF(C41&gt;=14, "3", IF(C41&gt;=12, "2", IF(C41&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I41">
-        <f>D41*H41</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="J41">
-        <f>D41*E41</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K41">
-        <f>D41*F41</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>I41*E41</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="M41">
-        <f>I41*F41</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>C41*D41</f>
+        <f t="shared" si="17"/>
         <v>43.5</v>
       </c>
       <c r="O41">
-        <f>C41*D41*E41</f>
+        <f t="shared" si="18"/>
         <v>43.5</v>
       </c>
       <c r="P41">
-        <f>C41*D41*F41</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3132,43 +3132,43 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="str">
-        <f>IF( C42&gt;=17, "A",IF(C42&gt;=14, "B", IF(C42&gt;=12, "C", IF(C42&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H42" t="str">
-        <f>IF( C42&gt;=17, "4",IF(C42&gt;=14, "3", IF(C42&gt;=12, "2", IF(C42&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I42">
-        <f>D42*H42</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J42">
-        <f>D42*E42</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K42">
-        <f>D42*F42</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>I42*E42</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="M42">
-        <f>I42*F42</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f>C42*D42</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="O42">
-        <f>C42*D42*E42</f>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="P42">
-        <f>C42*D42*F42</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3192,43 +3192,43 @@
         <v>0</v>
       </c>
       <c r="G43" s="6" t="str">
-        <f>IF( C43&gt;=17, "A",IF(C43&gt;=14, "B", IF(C43&gt;=12, "C", IF(C43&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="H43" t="str">
-        <f>IF( C43&gt;=17, "4",IF(C43&gt;=14, "3", IF(C43&gt;=12, "2", IF(C43&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I43">
-        <f>D43*H43</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J43">
-        <f>D43*E43</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>D43*F43</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>I43*E43</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>I43*F43</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>C43*D43</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="O43">
-        <f>C43*D43*E43</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f>C43*D43*F43</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3249,43 +3249,43 @@
         <v>0</v>
       </c>
       <c r="G44" s="6" t="str">
-        <f>IF( C44&gt;=17, "A",IF(C44&gt;=14, "B", IF(C44&gt;=12, "C", IF(C44&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="H44" t="str">
-        <f>IF( C44&gt;=17, "4",IF(C44&gt;=14, "3", IF(C44&gt;=12, "2", IF(C44&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I44">
-        <f>D44*H44</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="J44">
-        <f>D44*E44</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>D44*F44</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>I44*E44</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>I44*F44</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>C44*D44</f>
+        <f t="shared" si="17"/>
         <v>45.45</v>
       </c>
       <c r="O44">
-        <f>C44*D44*E44</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f>C44*D44*F44</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3309,43 +3309,43 @@
         <v>0</v>
       </c>
       <c r="G45" s="6" t="str">
-        <f>IF( C45&gt;=17, "A",IF(C45&gt;=14, "B", IF(C45&gt;=12, "C", IF(C45&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H45" t="str">
-        <f>IF( C45&gt;=17, "4",IF(C45&gt;=14, "3", IF(C45&gt;=12, "2", IF(C45&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I45">
-        <f>D45*H45</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J45">
-        <f>D45*E45</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K45">
-        <f>D45*F45</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f>I45*E45</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="M45">
-        <f>I45*F45</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>C45*D45</f>
+        <f t="shared" si="17"/>
         <v>37.799999999999997</v>
       </c>
       <c r="O45">
-        <f>C45*D45*E45</f>
+        <f t="shared" si="18"/>
         <v>37.799999999999997</v>
       </c>
       <c r="P45">
-        <f>C45*D45*F45</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3366,43 +3366,43 @@
         <v>1</v>
       </c>
       <c r="G46" s="6" t="str">
-        <f>IF( C46&gt;=17, "A",IF(C46&gt;=14, "B", IF(C46&gt;=12, "C", IF(C46&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H46" t="str">
-        <f>IF( C46&gt;=17, "4",IF(C46&gt;=14, "3", IF(C46&gt;=12, "2", IF(C46&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I46">
-        <f>D46*H46</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J46">
-        <f>D46*E46</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K46">
-        <f>D46*F46</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L46">
-        <f>I46*E46</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="M46">
-        <f>I46*F46</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="N46">
-        <f>C46*D46</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="O46">
-        <f>C46*D46*E46</f>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="P46">
-        <f>C46*D46*F46</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
     </row>
@@ -3426,43 +3426,43 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="str">
-        <f>IF( C47&gt;=17, "A",IF(C47&gt;=14, "B", IF(C47&gt;=12, "C", IF(C47&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H47" t="str">
-        <f>IF( C47&gt;=17, "4",IF(C47&gt;=14, "3", IF(C47&gt;=12, "2", IF(C47&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I47">
-        <f>D47*H47</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J47">
-        <f>D47*E47</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>D47*F47</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>I47*E47</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>I47*F47</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>C47*D47</f>
+        <f t="shared" si="17"/>
         <v>52.5</v>
       </c>
       <c r="O47">
-        <f>C47*D47*E47</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f>C47*D47*F47</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3483,43 +3483,43 @@
         <v>0</v>
       </c>
       <c r="G48" s="6" t="str">
-        <f>IF( C48&gt;=17, "A",IF(C48&gt;=14, "B", IF(C48&gt;=12, "C", IF(C48&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H48" t="str">
-        <f>IF( C48&gt;=17, "4",IF(C48&gt;=14, "3", IF(C48&gt;=12, "2", IF(C48&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I48">
-        <f>D48*H48</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J48">
-        <f>D48*E48</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>D48*F48</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>I48*E48</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>I48*F48</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>C48*D48</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="O48">
-        <f>C48*D48*E48</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f>C48*D48*F48</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3540,43 +3540,43 @@
         <v>0</v>
       </c>
       <c r="G49" s="6" t="str">
-        <f>IF( C49&gt;=17, "A",IF(C49&gt;=14, "B", IF(C49&gt;=12, "C", IF(C49&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="H49" t="str">
-        <f>IF( C49&gt;=17, "4",IF(C49&gt;=14, "3", IF(C49&gt;=12, "2", IF(C49&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="I49">
-        <f>D49*H49</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="J49">
-        <f>D49*E49</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f>D49*F49</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>I49*E49</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>I49*F49</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>C49*D49</f>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="O49">
-        <f>C49*D49*E49</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f>C49*D49*F49</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3597,43 +3597,43 @@
         <v>0</v>
       </c>
       <c r="G50" s="6" t="str">
-        <f>IF( C50&gt;=17, "A",IF(C50&gt;=14, "B", IF(C50&gt;=12, "C", IF(C50&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H50" t="str">
-        <f>IF( C50&gt;=17, "4",IF(C50&gt;=14, "3", IF(C50&gt;=12, "2", IF(C50&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I50">
-        <f>D50*H50</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J50">
-        <f>D50*E50</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>D50*F50</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f>I50*E50</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f>I50*F50</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f>C50*D50</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="O50">
-        <f>C50*D50*E50</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f>C50*D50*F50</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3654,43 +3654,43 @@
         <v>0</v>
       </c>
       <c r="G51" s="6" t="str">
-        <f>IF( C51&gt;=17, "A",IF(C51&gt;=14, "B", IF(C51&gt;=12, "C", IF(C51&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H51" t="str">
-        <f>IF( C51&gt;=17, "4",IF(C51&gt;=14, "3", IF(C51&gt;=12, "2", IF(C51&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I51">
-        <f>D51*H51</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J51">
-        <f>D51*E51</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f>D51*F51</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f>I51*E51</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f>I51*F51</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f>C51*D51</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="O51">
-        <f>C51*D51*E51</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f>C51*D51*F51</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3711,43 +3711,43 @@
         <v>0</v>
       </c>
       <c r="G52" s="6" t="str">
-        <f>IF( C52&gt;=17, "A",IF(C52&gt;=14, "B", IF(C52&gt;=12, "C", IF(C52&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H52" t="str">
-        <f>IF( C52&gt;=17, "4",IF(C52&gt;=14, "3", IF(C52&gt;=12, "2", IF(C52&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I52">
-        <f>D52*H52</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J52">
-        <f>D52*E52</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>D52*F52</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f>I52*E52</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>I52*F52</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f>C52*D52</f>
+        <f t="shared" si="17"/>
         <v>17.25</v>
       </c>
       <c r="O52">
-        <f>C52*D52*E52</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f>C52*D52*F52</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3768,43 +3768,43 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="str">
-        <f>IF( C53&gt;=17, "A",IF(C53&gt;=14, "B", IF(C53&gt;=12, "C", IF(C53&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H53" t="str">
-        <f>IF( C53&gt;=17, "4",IF(C53&gt;=14, "3", IF(C53&gt;=12, "2", IF(C53&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I53">
-        <f>D53*H53</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J53">
-        <f>D53*E53</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f>D53*F53</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f>I53*E53</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f>I53*F53</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f>C53*D53</f>
+        <f t="shared" si="17"/>
         <v>52.5</v>
       </c>
       <c r="O53">
-        <f>C53*D53*E53</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f>C53*D53*F53</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3825,43 +3825,43 @@
         <v>0</v>
       </c>
       <c r="G54" s="6" t="str">
-        <f>IF( C54&gt;=17, "A",IF(C54&gt;=14, "B", IF(C54&gt;=12, "C", IF(C54&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H54" t="str">
-        <f>IF( C54&gt;=17, "4",IF(C54&gt;=14, "3", IF(C54&gt;=12, "2", IF(C54&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I54">
-        <f>D54*H54</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J54">
-        <f>D54*E54</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f>D54*F54</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f>I54*E54</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f>I54*F54</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f>C54*D54</f>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="O54">
-        <f>C54*D54*E54</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f>C54*D54*F54</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3882,43 +3882,43 @@
         <v>0</v>
       </c>
       <c r="G55" s="6" t="str">
-        <f>IF( C55&gt;=17, "A",IF(C55&gt;=14, "B", IF(C55&gt;=12, "C", IF(C55&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H55" t="str">
-        <f>IF( C55&gt;=17, "4",IF(C55&gt;=14, "3", IF(C55&gt;=12, "2", IF(C55&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I55">
-        <f>D55*H55</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J55">
-        <f>D55*E55</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f>D55*F55</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f>I55*E55</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f>I55*F55</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f>C55*D55</f>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="O55">
-        <f>C55*D55*E55</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f>C55*D55*F55</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3939,43 +3939,43 @@
         <v>0</v>
       </c>
       <c r="G56" s="6" t="str">
-        <f>IF( C56&gt;=17, "A",IF(C56&gt;=14, "B", IF(C56&gt;=12, "C", IF(C56&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H56" t="str">
-        <f>IF( C56&gt;=17, "4",IF(C56&gt;=14, "3", IF(C56&gt;=12, "2", IF(C56&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I56">
-        <f>D56*H56</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J56">
-        <f>D56*E56</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f>D56*F56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f>I56*E56</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f>I56*F56</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f>C56*D56</f>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="O56">
-        <f>C56*D56*E56</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f>C56*D56*F56</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3996,43 +3996,43 @@
         <v>0</v>
       </c>
       <c r="G57" s="6" t="str">
-        <f>IF( C57&gt;=17, "A",IF(C57&gt;=14, "B", IF(C57&gt;=12, "C", IF(C57&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H57" t="str">
-        <f>IF( C57&gt;=17, "4",IF(C57&gt;=14, "3", IF(C57&gt;=12, "2", IF(C57&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I57">
-        <f>D57*H57</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J57">
-        <f>D57*E57</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f>D57*F57</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f>I57*E57</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f>I57*F57</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f>C57*D57</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="O57">
-        <f>C57*D57*E57</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f>C57*D57*F57</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -4053,43 +4053,43 @@
         <v>0</v>
       </c>
       <c r="G58" s="6" t="str">
-        <f>IF( C58&gt;=17, "A",IF(C58&gt;=14, "B", IF(C58&gt;=12, "C", IF(C58&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H58" t="str">
-        <f>IF( C58&gt;=17, "4",IF(C58&gt;=14, "3", IF(C58&gt;=12, "2", IF(C58&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I58">
-        <f>D58*H58</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J58">
-        <f>D58*E58</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f>D58*F58</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f>I58*E58</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f>I58*F58</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f>C58*D58</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="O58">
-        <f>C58*D58*E58</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f>C58*D58*F58</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -4110,43 +4110,43 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="str">
-        <f>IF( C59&gt;=17, "A",IF(C59&gt;=14, "B", IF(C59&gt;=12, "C", IF(C59&gt;=10, "D", "F"))))</f>
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
       <c r="H59" t="str">
-        <f>IF( C59&gt;=17, "4",IF(C59&gt;=14, "3", IF(C59&gt;=12, "2", IF(C59&gt;=10, "1", "0"))))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="I59">
-        <f>D59*H59</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J59">
-        <f>D59*E59</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f>D59*F59</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f>I59*E59</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f>I59*F59</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f>C59*D59</f>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="O59">
-        <f>C59*D59*E59</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f>C59*D59*F59</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -4164,50 +4164,50 @@
       </c>
       <c r="E60">
         <f>SUM(E2:E59)</f>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F60">
         <f>SUM(F2:F59)</f>
         <v>21</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:P60" si="0">SUM(G2:G59)</f>
+        <f t="shared" ref="G60:P60" si="20">SUM(G2:G59)</f>
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>530</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f t="shared" si="20"/>
+        <v>110</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>62</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
-        <v>327</v>
+        <f t="shared" si="20"/>
+        <v>423</v>
       </c>
       <c r="M60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>248</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>2587.0000000000005</v>
       </c>
       <c r="O60">
-        <f t="shared" si="0"/>
-        <v>1587.4</v>
+        <f t="shared" si="20"/>
+        <v>2074.3000000000002</v>
       </c>
       <c r="P60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="20"/>
         <v>1198.9000000000001</v>
       </c>
     </row>
@@ -4242,15 +4242,15 @@
       </c>
       <c r="C63" s="10">
         <f>SUM(J2:J59)</f>
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D63" s="10">
         <f>L60/J60</f>
-        <v>3.8928571428571428</v>
+        <v>3.8454545454545452</v>
       </c>
       <c r="E63" s="10">
         <f>O60/J60</f>
-        <v>18.897619047619049</v>
+        <v>18.857272727272729</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
